--- a/output/DE_breda_MHH.xlsx
+++ b/output/DE_breda_MHH.xlsx
@@ -5898,13 +5898,13 @@
         <v>10.8262529848146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000145749435975294</v>
+        <v>0.000000000000000000000145749435975281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000000000000000000918221446644349</v>
+        <v>0.00000000000000000000918221446644271</v>
       </c>
       <c r="F2" t="n">
-        <v>40.4570695956722</v>
+        <v>40.4570695956723</v>
       </c>
       <c r="G2" t="s">
         <v>114</v>
@@ -5927,22 +5927,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.958537332323191</v>
+        <v>0.958537332323192</v>
       </c>
       <c r="B3" t="n">
         <v>9.58814812244898</v>
       </c>
       <c r="C3" t="n">
-        <v>8.01356527058289</v>
+        <v>8.0135652705829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0000000000000460127469559049</v>
+        <v>0.0000000000000460127469559022</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00000000000144940152911101</v>
+        <v>0.00000000000144940152911092</v>
       </c>
       <c r="F3" t="n">
-        <v>21.1257875857591</v>
+        <v>21.1257875857592</v>
       </c>
       <c r="G3" t="s">
         <v>168</v>
@@ -5971,13 +5971,13 @@
         <v>3.68757775510204</v>
       </c>
       <c r="C4" t="n">
-        <v>6.64506492687313</v>
+        <v>6.64506492687312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000000000196170615605246</v>
+        <v>0.000000000196170615605256</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00000000411958292771017</v>
+        <v>0.00000000411958292771038</v>
       </c>
       <c r="F4" t="n">
         <v>12.9206680746555</v>
@@ -6003,22 +6003,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.545809433485392</v>
+        <v>0.545809433485393</v>
       </c>
       <c r="B5" t="n">
         <v>0.974069020408163</v>
       </c>
       <c r="C5" t="n">
-        <v>6.56528782016589</v>
+        <v>6.5652878201659</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000000000309745288940767</v>
+        <v>0.00000000030974528894075</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00000000487848830081708</v>
+        <v>0.00000000487848830081681</v>
       </c>
       <c r="F5" t="n">
-        <v>12.4738792942107</v>
+        <v>12.4738792942108</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -6041,22 +6041,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.24185824033399</v>
+        <v>1.241858240334</v>
       </c>
       <c r="B6" t="n">
         <v>13.6607606938776</v>
       </c>
       <c r="C6" t="n">
-        <v>5.80425264044612</v>
+        <v>5.80425264044613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000000020006835817487</v>
+        <v>0.0000000200068358174861</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000000252086131300336</v>
+        <v>0.000000252086131300325</v>
       </c>
       <c r="F6" t="n">
-        <v>8.40833265710193</v>
+        <v>8.408332657102</v>
       </c>
       <c r="G6" t="s">
         <v>111</v>
@@ -6085,16 +6085,16 @@
         <v>6.57567718367347</v>
       </c>
       <c r="C7" t="n">
-        <v>5.63657928758295</v>
+        <v>5.63657928758296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000000477552917137977</v>
+        <v>0.0000000477552917137962</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000000501430562994876</v>
+        <v>0.000000501430562994861</v>
       </c>
       <c r="F7" t="n">
-        <v>7.56288881605565</v>
+        <v>7.5628888160557</v>
       </c>
       <c r="G7" t="s">
         <v>165</v>
@@ -6126,10 +6126,10 @@
         <v>5.19006377409301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000000442561230488093</v>
+        <v>0.000000442561230488091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00000398305107439284</v>
+        <v>0.00000398305107439282</v>
       </c>
       <c r="F8" t="n">
         <v>5.40585222235461</v>
@@ -6155,22 +6155,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.747088726936743</v>
+        <v>-0.747088726936745</v>
       </c>
       <c r="B9" t="n">
         <v>8.26781057142857</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.15597310322234</v>
+        <v>-5.15597310322235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000000521663895989771</v>
+        <v>0.000000521663895989738</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000410810318091944</v>
+        <v>0.00000410810318091919</v>
       </c>
       <c r="F9" t="n">
-        <v>5.24696708409317</v>
+        <v>5.24696708409324</v>
       </c>
       <c r="G9" t="s">
         <v>141</v>
@@ -6199,16 +6199,16 @@
         <v>9.62802048979592</v>
       </c>
       <c r="C10" t="n">
-        <v>5.08373932663097</v>
+        <v>5.08373932663098</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000000737160235810521</v>
+        <v>0.000000737160235810493</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00000516012165067365</v>
+        <v>0.00000516012165067345</v>
       </c>
       <c r="F10" t="n">
-        <v>4.91309301909284</v>
+        <v>4.91309301909287</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -6237,16 +6237,16 @@
         <v>4.74029089795918</v>
       </c>
       <c r="C11" t="n">
-        <v>4.89057797240018</v>
+        <v>4.89057797240017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00000182537363437199</v>
+        <v>0.00000182537363437207</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0000114998538965436</v>
+        <v>0.000011499853896544</v>
       </c>
       <c r="F11" t="n">
-        <v>4.0390823630055</v>
+        <v>4.03908236300547</v>
       </c>
       <c r="G11" t="s">
         <v>102</v>
@@ -6275,13 +6275,13 @@
         <v>4.25979248979592</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.63970450423613</v>
+        <v>-4.63970450423614</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00000569588530711388</v>
+        <v>0.00000569588530711379</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0000326218885771068</v>
+        <v>0.0000326218885771063</v>
       </c>
       <c r="F12" t="n">
         <v>2.94565343091655</v>
@@ -6316,10 +6316,10 @@
         <v>4.57861936988824</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00000746269399752863</v>
+        <v>0.00000746269399752887</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0000391791434870253</v>
+        <v>0.0000391791434870266</v>
       </c>
       <c r="F13" t="n">
         <v>2.68669113445556</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.614197749296064</v>
+        <v>0.614197749296065</v>
       </c>
       <c r="B14" t="n">
         <v>8.57712542857143</v>
@@ -6354,13 +6354,13 @@
         <v>4.55438628001195</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00000830068908190067</v>
+        <v>0.00000830068908190048</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000402264163199802</v>
+        <v>0.0000402264163199792</v>
       </c>
       <c r="F14" t="n">
-        <v>2.5847576747499</v>
+        <v>2.58475767474989</v>
       </c>
       <c r="G14" t="s">
         <v>177</v>
@@ -6383,22 +6383,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.566621627404992</v>
+        <v>-0.566621627404993</v>
       </c>
       <c r="B15" t="n">
         <v>3.64800191836735</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.22494297473413</v>
+        <v>-4.22494297473414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0000337787674010899</v>
+        <v>0.0000337787674010893</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000152004453304905</v>
+        <v>0.000152004453304902</v>
       </c>
       <c r="F15" t="n">
-        <v>1.24473667545279</v>
+        <v>1.24473667545278</v>
       </c>
       <c r="G15" t="s">
         <v>159</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.597599498938051</v>
+        <v>0.597599498938052</v>
       </c>
       <c r="B16" t="n">
         <v>8.06117832653061</v>
@@ -6430,13 +6430,13 @@
         <v>4.19149581819141</v>
       </c>
       <c r="D16" t="n">
-        <v>0.000038774416287469</v>
+        <v>0.0000387744162874682</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00016285254840737</v>
+        <v>0.000162852548407366</v>
       </c>
       <c r="F16" t="n">
-        <v>1.11351997647122</v>
+        <v>1.11351997647124</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.530575178777361</v>
+        <v>0.530575178777362</v>
       </c>
       <c r="B17" t="n">
         <v>7.40422326530612</v>
@@ -6468,13 +6468,13 @@
         <v>4.14610828225892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0000466917144614804</v>
+        <v>0.0000466917144614797</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000183848625692079</v>
+        <v>0.000183848625692076</v>
       </c>
       <c r="F17" t="n">
-        <v>0.936904152997118</v>
+        <v>0.936904152997144</v>
       </c>
       <c r="G17" t="s">
         <v>60</v>
@@ -6497,22 +6497,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.429287574063573</v>
+        <v>0.429287574063572</v>
       </c>
       <c r="B18" t="n">
         <v>6.45266093877551</v>
       </c>
       <c r="C18" t="n">
-        <v>3.92431374037016</v>
+        <v>3.92431374037015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000113160190100939</v>
+        <v>0.000113160190100944</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00041935835155054</v>
+        <v>0.000419358351550557</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0979985467129474</v>
+        <v>0.0979985467129207</v>
       </c>
       <c r="G18" t="s">
         <v>186</v>
@@ -6544,10 +6544,10 @@
         <v>-3.47415255606823</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000606244734125836</v>
+        <v>0.000606244734125844</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00212185656944043</v>
+        <v>0.00212185656944046</v>
       </c>
       <c r="F19" t="n">
         <v>-1.47848862892481</v>
@@ -6573,22 +6573,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.227543251205887</v>
+        <v>-0.227543251205888</v>
       </c>
       <c r="B20" t="n">
         <v>1.65982706122449</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.32721263867713</v>
+        <v>-3.32721263867714</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00101254168749212</v>
+        <v>0.00101254168749209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00335737506905282</v>
+        <v>0.00335737506905271</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.95556655822144</v>
+        <v>-1.95556655822142</v>
       </c>
       <c r="G20" t="s">
         <v>162</v>
@@ -6611,22 +6611,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.344874495463211</v>
+        <v>-0.344874495463212</v>
       </c>
       <c r="B21" t="n">
         <v>9.21658053061224</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.026209714842</v>
+        <v>-3.02620971484201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00274158908431375</v>
+        <v>0.00274158908431367</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0086360056155883</v>
+        <v>0.00863600561558807</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.87373940914641</v>
+        <v>-2.87373940914639</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -6649,22 +6649,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.137451974399455</v>
+        <v>0.137451974399456</v>
       </c>
       <c r="B22" t="n">
         <v>8.96859216326531</v>
       </c>
       <c r="C22" t="n">
-        <v>2.90664329400493</v>
+        <v>2.90664329400494</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00398935655675082</v>
+        <v>0.00398935655675068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0119680696702525</v>
+        <v>0.011968069670252</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.21609087426188</v>
+        <v>-3.21609087426186</v>
       </c>
       <c r="G22" t="s">
         <v>51</v>
@@ -6687,22 +6687,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.307021722811134</v>
+        <v>-0.307021722811135</v>
       </c>
       <c r="B23" t="n">
         <v>6.14530820408163</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.84886494673077</v>
+        <v>-2.84886494673078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00476199123170031</v>
+        <v>0.00476199123170023</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0136366112544145</v>
+        <v>0.0136366112544143</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.37691359038595</v>
+        <v>-3.37691359038592</v>
       </c>
       <c r="G23" t="s">
         <v>99</v>
@@ -6725,22 +6725,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.245952579769759</v>
+        <v>-0.24595257976976</v>
       </c>
       <c r="B24" t="n">
         <v>4.7305046122449</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.63404949774751</v>
+        <v>-2.63404949774752</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00897680329062792</v>
+        <v>0.00897680329062766</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0245886351004156</v>
+        <v>0.0245886351004149</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.94823886993771</v>
+        <v>-3.94823886993768</v>
       </c>
       <c r="G24" t="s">
         <v>63</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.191871895988854</v>
+        <v>-0.191871895988855</v>
       </c>
       <c r="B25" t="n">
         <v>7.58987167346939</v>
@@ -6772,10 +6772,10 @@
         <v>-2.40348249125587</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0169867189391014</v>
+        <v>0.0169867189391011</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0431429890927495</v>
+        <v>0.0431429890927501</v>
       </c>
       <c r="F25" t="n">
         <v>-4.51428743271388</v>
@@ -6807,16 +6807,16 @@
         <v>1.98004620408163</v>
       </c>
       <c r="C26" t="n">
-        <v>2.40054892637477</v>
+        <v>2.40054892637476</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0171202337669641</v>
+        <v>0.0171202337669643</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0431429890927495</v>
+        <v>0.0431429890927501</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.52117180468606</v>
+        <v>-4.52117180468607</v>
       </c>
       <c r="G26" t="s">
         <v>174</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.0900166194245955</v>
+        <v>-0.0900166194245957</v>
       </c>
       <c r="B27" t="n">
         <v>8.92113657142857</v>
@@ -6848,13 +6848,13 @@
         <v>-2.36253463592526</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0189360139838162</v>
+        <v>0.018936013983816</v>
       </c>
       <c r="E27" t="n">
-        <v>0.045883418499247</v>
+        <v>0.0458834184992465</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.60965652215507</v>
+        <v>-4.60965652215504</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -6915,22 +6915,22 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.20259080439022</v>
+        <v>0.202590804390219</v>
       </c>
       <c r="B29" t="n">
         <v>10.4919068571429</v>
       </c>
       <c r="C29" t="n">
-        <v>2.24927944467298</v>
+        <v>2.24927944467297</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0253870258084983</v>
+        <v>0.0253870258084989</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0571208080691211</v>
+        <v>0.0571208080691225</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.86526650613382</v>
+        <v>-4.86526650613385</v>
       </c>
       <c r="G29" t="s">
         <v>57</v>
@@ -6959,13 +6959,13 @@
         <v>4.86722726530612</v>
       </c>
       <c r="C30" t="n">
-        <v>2.22751203113914</v>
+        <v>2.22751203113913</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0268256371715984</v>
+        <v>0.0268256371715986</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0582763842003689</v>
+        <v>0.0582763842003695</v>
       </c>
       <c r="F30" t="n">
         <v>-4.91301544050399</v>
@@ -7000,13 +7000,13 @@
         <v>-2.11358900417863</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0355656399002671</v>
+        <v>0.0355656399002672</v>
       </c>
       <c r="E31" t="n">
-        <v>0.074687843790561</v>
+        <v>0.0746878437905612</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.15563181947372</v>
+        <v>-5.15563181947375</v>
       </c>
       <c r="G31" t="s">
         <v>150</v>
@@ -7029,22 +7029,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.432344303443588</v>
+        <v>-0.432344303443589</v>
       </c>
       <c r="B32" t="n">
         <v>4.97663902040816</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.04787729178023</v>
+        <v>-2.04787729178024</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0416426271812482</v>
+        <v>0.0416426271812477</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0846285649167301</v>
+        <v>0.0846285649167292</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.28999226952862</v>
+        <v>-5.2899922695286</v>
       </c>
       <c r="G32" t="s">
         <v>120</v>
@@ -7076,10 +7076,10 @@
         <v>1.90266171819842</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0582618926621085</v>
+        <v>0.058261892662108</v>
       </c>
       <c r="E33" t="n">
-        <v>0.114703101178526</v>
+        <v>0.114703101178525</v>
       </c>
       <c r="F33" t="n">
         <v>-5.57234778341428</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.497109938042821</v>
+        <v>0.497109938042819</v>
       </c>
       <c r="B34" t="n">
         <v>7.169188</v>
@@ -7114,13 +7114,13 @@
         <v>1.87017487870582</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0626568307699042</v>
+        <v>0.062656830769905</v>
       </c>
       <c r="E34" t="n">
-        <v>0.119617586015272</v>
+        <v>0.119617586015273</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.63275859428826</v>
+        <v>-5.63275859428828</v>
       </c>
       <c r="G34" t="s">
         <v>96</v>
@@ -7143,22 +7143,22 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.165942226993161</v>
+        <v>0.16594222699316</v>
       </c>
       <c r="B35" t="n">
         <v>10.7286891020408</v>
       </c>
       <c r="C35" t="n">
-        <v>1.84096253075982</v>
+        <v>1.84096253075981</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06684105313385</v>
+        <v>0.066841053133851</v>
       </c>
       <c r="E35" t="n">
-        <v>0.123852539630369</v>
+        <v>0.123852539630371</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.68621701752674</v>
+        <v>-5.68621701752677</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
@@ -7181,19 +7181,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.173764331207367</v>
+        <v>0.173764331207369</v>
       </c>
       <c r="B36" t="n">
         <v>4.82673795918367</v>
       </c>
       <c r="C36" t="n">
-        <v>1.80783480898916</v>
+        <v>1.80783480898918</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0718635067152277</v>
+        <v>0.0718635067152257</v>
       </c>
       <c r="E36" t="n">
-        <v>0.12935431208741</v>
+        <v>0.129354312087406</v>
       </c>
       <c r="F36" t="n">
         <v>-5.74584992775469</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.168020073135734</v>
+        <v>0.168020073135735</v>
       </c>
       <c r="B37" t="n">
         <v>8.31827889795918</v>
@@ -7257,19 +7257,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.183075859831845</v>
+        <v>0.183075859831844</v>
       </c>
       <c r="B38" t="n">
         <v>8.50337089795918</v>
       </c>
       <c r="C38" t="n">
-        <v>1.53545267238142</v>
+        <v>1.53545267238141</v>
       </c>
       <c r="D38" t="n">
-        <v>0.125968259544555</v>
+        <v>0.125968259544557</v>
       </c>
       <c r="E38" t="n">
-        <v>0.214486495981269</v>
+        <v>0.214486495981272</v>
       </c>
       <c r="F38" t="n">
         <v>-6.19605216195891</v>
@@ -7295,19 +7295,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.349774857804623</v>
+        <v>-0.349774857804626</v>
       </c>
       <c r="B39" t="n">
         <v>5.66533653061224</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.51723009193471</v>
+        <v>-1.51723009193472</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130503052828186</v>
+        <v>0.130503052828184</v>
       </c>
       <c r="E39" t="n">
-        <v>0.216360324425678</v>
+        <v>0.216360324425673</v>
       </c>
       <c r="F39" t="n">
         <v>-6.2236071758439</v>
@@ -7333,19 +7333,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.100771165350165</v>
+        <v>0.100771165350164</v>
       </c>
       <c r="B40" t="n">
         <v>5.48355746938775</v>
       </c>
       <c r="C40" t="n">
-        <v>1.46060040386165</v>
+        <v>1.46060040386164</v>
       </c>
       <c r="D40" t="n">
-        <v>0.145411510126777</v>
+        <v>0.145411510126779</v>
       </c>
       <c r="E40" t="n">
-        <v>0.234895516358639</v>
+        <v>0.234895516358643</v>
       </c>
       <c r="F40" t="n">
         <v>-6.30717743448468</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.0868577143654602</v>
+        <v>-0.0868577143654604</v>
       </c>
       <c r="B41" t="n">
         <v>1.47222208163265</v>
@@ -7380,13 +7380,13 @@
         <v>-1.15997959064</v>
       </c>
       <c r="D41" t="n">
-        <v>0.247190827436669</v>
+        <v>0.247190827436668</v>
       </c>
       <c r="E41" t="n">
-        <v>0.381474695418029</v>
+        <v>0.381474695418023</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.69835327736023</v>
+        <v>-6.6983532773602</v>
       </c>
       <c r="G41" t="s">
         <v>48</v>
@@ -7409,22 +7409,22 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.106451823645996</v>
+        <v>-0.106451823645997</v>
       </c>
       <c r="B42" t="n">
         <v>4.0435173877551</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.15734933698896</v>
+        <v>-1.15734933698897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.248261309716495</v>
+        <v>0.248261309716491</v>
       </c>
       <c r="E42" t="n">
-        <v>0.381474695418029</v>
+        <v>0.381474695418023</v>
       </c>
       <c r="F42" t="n">
-        <v>-6.70138469175505</v>
+        <v>-6.70138469175502</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -7459,7 +7459,7 @@
         <v>0.278352313021766</v>
       </c>
       <c r="E43" t="n">
-        <v>0.417528469532649</v>
+        <v>0.41752846953265</v>
       </c>
       <c r="F43" t="n">
         <v>-6.78053211967341</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0703779198582274</v>
+        <v>0.0703779198582272</v>
       </c>
       <c r="B44" t="n">
         <v>5.6342253877551</v>
@@ -7494,10 +7494,10 @@
         <v>1.03669098227761</v>
       </c>
       <c r="D44" t="n">
-        <v>0.300906134621351</v>
+        <v>0.300906134621352</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4408624763057</v>
+        <v>0.440862476305702</v>
       </c>
       <c r="F44" t="n">
         <v>-6.83312016373763</v>
@@ -7523,19 +7523,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.056386653083297</v>
+        <v>-0.0563866530832974</v>
       </c>
       <c r="B45" t="n">
         <v>8.12801318367347</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.995903706637453</v>
+        <v>-0.995903706637461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.320283486172226</v>
+        <v>0.320283486172222</v>
       </c>
       <c r="E45" t="n">
-        <v>0.458587718837506</v>
+        <v>0.4585877188375</v>
       </c>
       <c r="F45" t="n">
         <v>-6.87440450171554</v>
@@ -7561,22 +7561,22 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0641916042012761</v>
+        <v>0.064191604201276</v>
       </c>
       <c r="B46" t="n">
         <v>6.94673653061225</v>
       </c>
       <c r="C46" t="n">
-        <v>0.795805380192857</v>
+        <v>0.795805380192856</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426918642091493</v>
+        <v>0.426918642091494</v>
       </c>
       <c r="E46" t="n">
-        <v>0.59768609892809</v>
+        <v>0.597686098928092</v>
       </c>
       <c r="F46" t="n">
-        <v>-7.05310005195997</v>
+        <v>-7.05310005195998</v>
       </c>
       <c r="G46" t="s">
         <v>171</v>
@@ -7599,22 +7599,22 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.105804249506023</v>
+        <v>-0.105804249506025</v>
       </c>
       <c r="B47" t="n">
         <v>4.5923447755102</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.726409571265664</v>
+        <v>-0.726409571265672</v>
       </c>
       <c r="D47" t="n">
-        <v>0.468283949596014</v>
+        <v>0.46828394959601</v>
       </c>
       <c r="E47" t="n">
-        <v>0.641345409229323</v>
+        <v>0.641345409229318</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.1058018489173</v>
+        <v>-7.10580184891727</v>
       </c>
       <c r="G47" t="s">
         <v>126</v>
@@ -7637,19 +7637,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0386292287009214</v>
+        <v>0.0386292287009211</v>
       </c>
       <c r="B48" t="n">
         <v>4.65994767346939</v>
       </c>
       <c r="C48" t="n">
-        <v>0.692798335770663</v>
+        <v>0.692798335770657</v>
       </c>
       <c r="D48" t="n">
-        <v>0.489094938206713</v>
+        <v>0.489094938206717</v>
       </c>
       <c r="E48" t="n">
-        <v>0.655595342702616</v>
+        <v>0.655595342702621</v>
       </c>
       <c r="F48" t="n">
         <v>-7.12960768145941</v>
@@ -7675,19 +7675,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0828673539274391</v>
+        <v>0.0828673539274377</v>
       </c>
       <c r="B49" t="n">
         <v>7.8266686122449</v>
       </c>
       <c r="C49" t="n">
-        <v>0.614602041351851</v>
+        <v>0.61460204135184</v>
       </c>
       <c r="D49" t="n">
-        <v>0.539390222618431</v>
+        <v>0.539390222618438</v>
       </c>
       <c r="E49" t="n">
-        <v>0.707949667186691</v>
+        <v>0.707949667186699</v>
       </c>
       <c r="F49" t="n">
         <v>-7.18064423650507</v>
@@ -7751,22 +7751,22 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0633227879099314</v>
+        <v>0.0633227879099309</v>
       </c>
       <c r="B51" t="n">
         <v>14.5086744897959</v>
       </c>
       <c r="C51" t="n">
-        <v>0.552941384975584</v>
+        <v>0.552941384975579</v>
       </c>
       <c r="D51" t="n">
-        <v>0.580809748682494</v>
+        <v>0.580809748682497</v>
       </c>
       <c r="E51" t="n">
-        <v>0.731820283339942</v>
+        <v>0.731820283339946</v>
       </c>
       <c r="F51" t="n">
-        <v>-7.21659624508678</v>
+        <v>-7.21659624508679</v>
       </c>
       <c r="G51" t="s">
         <v>144</v>
@@ -7789,22 +7789,22 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.029293083655844</v>
+        <v>-0.0292930836558444</v>
       </c>
       <c r="B52" t="n">
         <v>5.75445363265306</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.508922781064964</v>
+        <v>-0.50892278106497</v>
       </c>
       <c r="D52" t="n">
-        <v>0.611266211458453</v>
+        <v>0.611266211458449</v>
       </c>
       <c r="E52" t="n">
-        <v>0.75509355533103</v>
+        <v>0.755093555331025</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.23994443071306</v>
+        <v>-7.23994443071307</v>
       </c>
       <c r="G52" t="s">
         <v>189</v>
@@ -7827,22 +7827,22 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.0300335254371253</v>
+        <v>-0.0300335254371257</v>
       </c>
       <c r="B53" t="n">
         <v>7.16626110204082</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.489567175450693</v>
+        <v>-0.489567175450699</v>
       </c>
       <c r="D53" t="n">
-        <v>0.624880023155068</v>
+        <v>0.624880023155064</v>
       </c>
       <c r="E53" t="n">
-        <v>0.75706618189941</v>
+        <v>0.757066181899405</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.24959954304711</v>
+        <v>-7.24959954304712</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -7865,19 +7865,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0153118333731399</v>
+        <v>0.0153118333731396</v>
       </c>
       <c r="B54" t="n">
         <v>7.85309130612245</v>
       </c>
       <c r="C54" t="n">
-        <v>0.362831524596437</v>
+        <v>0.362831524596429</v>
       </c>
       <c r="D54" t="n">
-        <v>0.717044827121059</v>
+        <v>0.717044827121065</v>
       </c>
       <c r="E54" t="n">
-        <v>0.852336303936354</v>
+        <v>0.85233630393636</v>
       </c>
       <c r="F54" t="n">
         <v>-7.30358317813246</v>
@@ -7903,19 +7903,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0208697181003301</v>
+        <v>0.0208697181003296</v>
       </c>
       <c r="B55" t="n">
         <v>3.69275542857143</v>
       </c>
       <c r="C55" t="n">
-        <v>0.334274629461106</v>
+        <v>0.334274629461098</v>
       </c>
       <c r="D55" t="n">
-        <v>0.73845945504153</v>
+        <v>0.738459455041536</v>
       </c>
       <c r="E55" t="n">
-        <v>0.852339283276307</v>
+        <v>0.852339283276308</v>
       </c>
       <c r="F55" t="n">
         <v>-7.31353367267954</v>
@@ -7941,19 +7941,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.0257859829908585</v>
+        <v>-0.0257859829908584</v>
       </c>
       <c r="B56" t="n">
         <v>5.13614044897959</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.326791504422862</v>
+        <v>-0.326791504422861</v>
       </c>
       <c r="D56" t="n">
-        <v>0.744105723495188</v>
+        <v>0.744105723495189</v>
       </c>
       <c r="E56" t="n">
-        <v>0.852339283276307</v>
+        <v>0.852339283276308</v>
       </c>
       <c r="F56" t="n">
         <v>-7.31600644919072</v>
@@ -7979,19 +7979,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.0217230144861161</v>
+        <v>-0.0217230144861176</v>
       </c>
       <c r="B57" t="n">
         <v>9.95596126530612</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.239485647805469</v>
+        <v>-0.239485647805485</v>
       </c>
       <c r="D57" t="n">
-        <v>0.810930062991724</v>
+        <v>0.810930062991712</v>
       </c>
       <c r="E57" t="n">
-        <v>0.89067669553366</v>
+        <v>0.890676695533668</v>
       </c>
       <c r="F57" t="n">
         <v>-7.34072243527952</v>
@@ -8017,19 +8017,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.00911835701213613</v>
+        <v>0.00911835701213606</v>
       </c>
       <c r="B58" t="n">
         <v>3.16578146938776</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230629657777887</v>
+        <v>0.230629657777885</v>
       </c>
       <c r="D58" t="n">
-        <v>0.81779576957686</v>
+        <v>0.817795769576861</v>
       </c>
       <c r="E58" t="n">
-        <v>0.89067669553366</v>
+        <v>0.890676695533668</v>
       </c>
       <c r="F58" t="n">
         <v>-7.34280402390643</v>
@@ -8055,19 +8055,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.0134640453997245</v>
+        <v>-0.0134640453997239</v>
       </c>
       <c r="B59" t="n">
         <v>8.60718955102041</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.227805691696998</v>
+        <v>-0.227805691696988</v>
       </c>
       <c r="D59" t="n">
-        <v>0.819988068904004</v>
+        <v>0.819988068904012</v>
       </c>
       <c r="E59" t="n">
-        <v>0.89067669553366</v>
+        <v>0.890676695533668</v>
       </c>
       <c r="F59" t="n">
         <v>-7.34345130935805</v>
@@ -8093,19 +8093,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0170877386839685</v>
+        <v>0.0170877386839679</v>
       </c>
       <c r="B60" t="n">
         <v>6.58500555102041</v>
       </c>
       <c r="C60" t="n">
-        <v>0.120691102868111</v>
+        <v>0.120691102868107</v>
       </c>
       <c r="D60" t="n">
-        <v>0.90403502586784</v>
+        <v>0.904035025867843</v>
       </c>
       <c r="E60" t="n">
-        <v>0.948105969411528</v>
+        <v>0.948105969411537</v>
       </c>
       <c r="F60" t="n">
         <v>-7.36211683327244</v>
@@ -8131,19 +8131,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.005513547006949</v>
+        <v>-0.00551354700694927</v>
       </c>
       <c r="B61" t="n">
         <v>9.4012347755102</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.103446157109506</v>
+        <v>-0.103446157109512</v>
       </c>
       <c r="D61" t="n">
-        <v>0.917693848633163</v>
+        <v>0.917693848633159</v>
       </c>
       <c r="E61" t="n">
-        <v>0.948105969411528</v>
+        <v>0.948105969411537</v>
       </c>
       <c r="F61" t="n">
         <v>-7.36404971579919</v>
@@ -8169,19 +8169,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.00835231924764974</v>
+        <v>0.00835231924764887</v>
       </c>
       <c r="B62" t="n">
         <v>4.9758252244898</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103050706322302</v>
+        <v>0.103050706322291</v>
       </c>
       <c r="D62" t="n">
-        <v>0.918007367207988</v>
+        <v>0.918007367207996</v>
       </c>
       <c r="E62" t="n">
-        <v>0.948105969411528</v>
+        <v>0.948105969411537</v>
       </c>
       <c r="F62" t="n">
         <v>-7.36409055140457</v>
@@ -8207,19 +8207,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.00496739695448511</v>
+        <v>0.00496739695448315</v>
       </c>
       <c r="B63" t="n">
         <v>7.61366093877551</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0346223863139647</v>
+        <v>0.0346223863139511</v>
       </c>
       <c r="D63" t="n">
-        <v>0.972409155355894</v>
+        <v>0.972409155355905</v>
       </c>
       <c r="E63" t="n">
-        <v>0.988093173990667</v>
+        <v>0.988093173990678</v>
       </c>
       <c r="F63" t="n">
         <v>-7.36880169703895</v>
@@ -8245,19 +8245,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.00125990276237217</v>
+        <v>-0.00125990276237241</v>
       </c>
       <c r="B64" t="n">
         <v>6.12967391836735</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0102402567406479</v>
+        <v>-0.0102402567406499</v>
       </c>
       <c r="D64" t="n">
-        <v>0.991837967196403</v>
+        <v>0.991837967196402</v>
       </c>
       <c r="E64" t="n">
-        <v>0.991837967196403</v>
+        <v>0.991837967196402</v>
       </c>
       <c r="F64" t="n">
         <v>-7.3693487224081</v>
